--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonStudio\Appcomposer-master\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonStudio\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E505046-E882-4301-8FE5-443655B6305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735ADD7-173A-4893-90E0-61CA8D24A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="20" activeTab="27" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="17" activeTab="18" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1181">
   <si>
     <t>username</t>
   </si>
@@ -3600,6 +3600,39 @@
   </si>
   <si>
     <t>Job Action for Completed  Array Job - View SubJobs</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>AD-3454</t>
+  </si>
+  <si>
+    <t>AD-3456</t>
+  </si>
+  <si>
+    <t>AD-3457</t>
+  </si>
+  <si>
+    <t>AD-3458</t>
+  </si>
+  <si>
+    <t>AD-3459</t>
+  </si>
+  <si>
+    <t>AD-3460</t>
+  </si>
+  <si>
+    <t>AD-3461</t>
+  </si>
+  <si>
+    <t>AD-3467</t>
+  </si>
+  <si>
+    <t>AD-3468</t>
+  </si>
+  <si>
+    <t>AD-3469</t>
   </si>
 </sst>
 </file>
@@ -6064,148 +6097,184 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>563</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B2" t="s">
         <v>564</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>565</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B3" t="s">
         <v>567</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>565</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B4" t="s">
         <v>569</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>570</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B5" t="s">
         <v>572</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>570</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B6" t="s">
         <v>574</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>575</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B7" t="s">
         <v>577</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>575</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B8" t="s">
         <v>579</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>580</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B9" t="s">
         <v>582</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>580</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B10" t="s">
         <v>584</v>
-      </c>
-      <c r="B10" t="s">
-        <v>585</v>
       </c>
       <c r="C10" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B11" t="s">
         <v>586</v>
-      </c>
-      <c r="B11" t="s">
-        <v>587</v>
       </c>
       <c r="C11" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B12" t="s">
         <v>588</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>589</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10170,7 +10239,7 @@
   </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC5EB38-1462-4551-BDF5-1613750DC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50F93B-85DA-4EEB-948D-33A0FACF3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="29" activeTab="32" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="9036" tabRatio="954" firstSheet="29" activeTab="31" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1183">
   <si>
     <t>username</t>
   </si>
@@ -3618,6 +3618,27 @@
   </si>
   <si>
     <t xml:space="preserve">List View-Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>Test to create profile for DynamicInComplete - Duplicate</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for Optistruct - Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for RADIOSS-SMP - Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for RegularInComplete - Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for ShellScript - Duplicate</t>
   </si>
 </sst>
 </file>
@@ -3783,7 +3804,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3820,6 +3841,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -9257,10 +9282,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9872,6 +9897,121 @@
       </c>
       <c r="G26" s="13" t="s">
         <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -11535,8 +11675,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11874,7 +12014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>220</v>
       </c>
@@ -12495,7 +12635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>169</v>
       </c>
@@ -12587,7 +12727,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="1.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>173</v>
       </c>
@@ -12633,7 +12773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>175</v>
       </c>
@@ -12748,7 +12888,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>345</v>
       </c>
@@ -12771,7 +12911,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>592</v>
       </c>
@@ -12791,18 +12931,18 @@
         <v>2</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>90</v>
+      <c r="C55" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>11</v>
@@ -12813,19 +12953,19 @@
       <c r="F55" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>90</v>
+      <c r="C56" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>11</v>
@@ -12836,11 +12976,11 @@
       <c r="F56" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>915</v>
       </c>
@@ -12863,7 +13003,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>916</v>
       </c>
@@ -12886,7 +13026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>917</v>
       </c>
@@ -12909,7 +13049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>918</v>
       </c>
@@ -12932,7 +13072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>918</v>
       </c>
@@ -12955,7 +13095,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>919</v>
       </c>
@@ -12978,7 +13118,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>920</v>
       </c>
@@ -13001,7 +13141,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>921</v>
       </c>
@@ -13024,7 +13164,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>922</v>
       </c>
@@ -13047,7 +13187,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>923</v>
       </c>
@@ -13070,7 +13210,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>918</v>
       </c>
@@ -13093,7 +13233,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>924</v>
       </c>
@@ -13116,7 +13256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>925</v>
       </c>
@@ -13139,7 +13279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>926</v>
       </c>
@@ -13162,7 +13302,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>927</v>
       </c>
@@ -13185,7 +13325,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>928</v>
       </c>
@@ -13208,7 +13348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>929</v>
       </c>
@@ -13231,7 +13371,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>930</v>
       </c>
@@ -13254,7 +13394,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>931</v>
       </c>
@@ -13277,7 +13417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>932</v>
       </c>
@@ -13300,7 +13440,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>933</v>
       </c>
@@ -13323,7 +13463,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>933</v>
       </c>
@@ -13346,7 +13486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>934</v>
       </c>
@@ -13369,7 +13509,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>935</v>
       </c>
@@ -13392,7 +13532,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>936</v>
       </c>
@@ -13415,7 +13555,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>937</v>
       </c>
@@ -13438,7 +13578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>938</v>
       </c>
@@ -13461,7 +13601,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>939</v>
       </c>
@@ -13484,7 +13624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>940</v>
       </c>
@@ -13507,7 +13647,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>940</v>
       </c>
@@ -13530,7 +13670,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>941</v>
       </c>
@@ -13553,7 +13693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>942</v>
       </c>
@@ -13576,7 +13716,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>943</v>
       </c>
@@ -13599,7 +13739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>944</v>
       </c>
@@ -13622,7 +13762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>945</v>
       </c>
@@ -13678,8 +13818,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13824,7 +13964,7 @@
         <v>386</v>
       </c>
       <c r="D10" t="s">
-        <v>670</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent _2024.1.10\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50F93B-85DA-4EEB-948D-33A0FACF3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363515A9-4228-44FA-B04F-B9047BD6B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="9036" tabRatio="954" firstSheet="29" activeTab="31" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="13" activeTab="16" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -21,51 +21,55 @@
     <sheet name="Sheet1" sheetId="50" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="51" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="54" r:id="rId8"/>
-    <sheet name="ChangePasswd" sheetId="46" r:id="rId9"/>
-    <sheet name="AppComposerNew" sheetId="44" r:id="rId10"/>
-    <sheet name="AppComposer" sheetId="45" r:id="rId11"/>
-    <sheet name="FilesTableCols " sheetId="43" r:id="rId12"/>
-    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId13"/>
-    <sheet name="ManageBookMark" sheetId="40" r:id="rId14"/>
-    <sheet name="2020.4" sheetId="39" r:id="rId15"/>
-    <sheet name="FileViewerJobs" sheetId="37" r:id="rId16"/>
-    <sheet name="Generic_Actions" sheetId="36" r:id="rId17"/>
-    <sheet name="Access_Management" sheetId="32" r:id="rId18"/>
-    <sheet name="Preferences" sheetId="33" r:id="rId19"/>
-    <sheet name="JobsTableCols" sheetId="29" r:id="rId20"/>
-    <sheet name="Cluster_Registration" sheetId="28" r:id="rId21"/>
-    <sheet name="JobDetails" sheetId="30" r:id="rId22"/>
-    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId23"/>
-    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId24"/>
-    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId25"/>
-    <sheet name="ProfileOperations" sheetId="14" r:id="rId26"/>
-    <sheet name="JobAction" sheetId="5" r:id="rId27"/>
-    <sheet name="JobArrayAction" sheetId="31" r:id="rId28"/>
-    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId29"/>
-    <sheet name="JobActionIcon" sheetId="18" r:id="rId30"/>
-    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId31"/>
-    <sheet name="JS-Latest" sheetId="16" r:id="rId32"/>
-    <sheet name="BookMarks" sheetId="17" r:id="rId33"/>
-    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId34"/>
-    <sheet name="FolderOperations" sheetId="11" r:id="rId35"/>
-    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId36"/>
-    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId37"/>
-    <sheet name="FileOperations" sheetId="9" r:id="rId38"/>
-    <sheet name="LoginData" sheetId="1" r:id="rId39"/>
-    <sheet name="JobFilters" sheetId="8" r:id="rId40"/>
-    <sheet name="FileViewerOps" sheetId="15" r:id="rId41"/>
-    <sheet name="CreateFolder" sheetId="2" r:id="rId42"/>
-    <sheet name="CreateFile" sheetId="3" r:id="rId43"/>
-    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId44"/>
-    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId45"/>
-    <sheet name="RunningFolder" sheetId="6" r:id="rId46"/>
-    <sheet name="FileUpload" sheetId="55" r:id="rId47"/>
-    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId48"/>
+    <sheet name="Sheet5" sheetId="57" r:id="rId9"/>
+    <sheet name="ChangePasswd" sheetId="46" r:id="rId10"/>
+    <sheet name="AppComposerNew" sheetId="44" r:id="rId11"/>
+    <sheet name="AppComposer" sheetId="45" r:id="rId12"/>
+    <sheet name="FilesTableCols " sheetId="43" r:id="rId13"/>
+    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId14"/>
+    <sheet name="ManageBookMark" sheetId="40" r:id="rId15"/>
+    <sheet name="2020.4" sheetId="39" r:id="rId16"/>
+    <sheet name="FileViewerJobs" sheetId="37" r:id="rId17"/>
+    <sheet name="Generic_Actions" sheetId="36" r:id="rId18"/>
+    <sheet name="Access_Management" sheetId="32" r:id="rId19"/>
+    <sheet name="Preferences" sheetId="33" r:id="rId20"/>
+    <sheet name="JobsTableCols" sheetId="29" r:id="rId21"/>
+    <sheet name="Cluster_Registration" sheetId="28" r:id="rId22"/>
+    <sheet name="JobDetails" sheetId="30" r:id="rId23"/>
+    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId24"/>
+    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId25"/>
+    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId26"/>
+    <sheet name="ProfileOperations" sheetId="14" r:id="rId27"/>
+    <sheet name="JobAction" sheetId="5" r:id="rId28"/>
+    <sheet name="JobArrayAction" sheetId="31" r:id="rId29"/>
+    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId30"/>
+    <sheet name="JobActionIcon" sheetId="18" r:id="rId31"/>
+    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId32"/>
+    <sheet name="JS-Latest" sheetId="16" r:id="rId33"/>
+    <sheet name="Sheet4" sheetId="56" r:id="rId34"/>
+    <sheet name="BookMarks" sheetId="17" r:id="rId35"/>
+    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId36"/>
+    <sheet name="FolderOperations" sheetId="11" r:id="rId37"/>
+    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId38"/>
+    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId39"/>
+    <sheet name="FileOperations" sheetId="9" r:id="rId40"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId41"/>
+    <sheet name="JobFilters" sheetId="8" r:id="rId42"/>
+    <sheet name="FileViewerOps" sheetId="15" r:id="rId43"/>
+    <sheet name="CreateFolder" sheetId="2" r:id="rId44"/>
+    <sheet name="CreateFile" sheetId="3" r:id="rId45"/>
+    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId46"/>
+    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId47"/>
+    <sheet name="RunningFolder" sheetId="6" r:id="rId48"/>
+    <sheet name="FileUpload" sheetId="55" r:id="rId49"/>
+    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId50"/>
+    <sheet name="2024.1.0" sheetId="59" r:id="rId51"/>
+    <sheet name="FilePermissions" sheetId="60" r:id="rId52"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">ProfileOperations!$A$1:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">ProfileSubmissions!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">ProfileOperations!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">ProfileSubmissions!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="1212">
   <si>
     <t>username</t>
   </si>
@@ -3639,13 +3643,107 @@
   </si>
   <si>
     <t>Test to create profile for ShellScript - Duplicate</t>
+  </si>
+  <si>
+    <t>Empty_Message</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>output_tab</t>
+  </si>
+  <si>
+    <t>Verify the Empty  view Message For JobDetails page -&gt; Running Folder-&gt;Queued Job</t>
+  </si>
+  <si>
+    <t>Verify the Empty  view Message For JobDetails page -&gt; Running Folder-&gt;Failed Job</t>
+  </si>
+  <si>
+    <t>Running_tab</t>
+  </si>
+  <si>
+    <t>No Running Folder Yet
+The Running Folder is available only while a job is running.
+Continue to the Input Folder instead.</t>
+  </si>
+  <si>
+    <t>waitingjob</t>
+  </si>
+  <si>
+    <t>Verify the Empty View Message in the Jobs Page</t>
+  </si>
+  <si>
+    <t>Verify the Empty View Message For Jobdetails page -&gt; Output Folder-&gt; Running Job</t>
+  </si>
+  <si>
+    <t>No Output Yet
+Output folder is not accessible while a job is running.
+Continue to the Running Folder instead.</t>
+  </si>
+  <si>
+    <t>Verify the Empty View Message For Jobdetails page -&gt; Running Folder-&gt; Completed Job</t>
+  </si>
+  <si>
+    <t>No Running Folder Anymore
+The Running Folder is available only while a job is running.
+Continue to the Output Folder instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector </t>
+  </si>
+  <si>
+    <t>running-empty-message</t>
+  </si>
+  <si>
+    <t>empty-jobs-info-contianer</t>
+  </si>
+  <si>
+    <t>output-empty-message</t>
+  </si>
+  <si>
+    <t>No jobs match the current filter
+Change the filter or submit a new one.</t>
+  </si>
+  <si>
+    <t>link_selector</t>
+  </si>
+  <si>
+    <t>Continue to the Input Folder instead.</t>
+  </si>
+  <si>
+    <t>Continue to the Running Folder instead.</t>
+  </si>
+  <si>
+    <t>Continue to the Output Folder instead.</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>You don't have  permissions to modify this file or directory</t>
+  </si>
+  <si>
+    <t>ListView - Verify the msg for a file/folder item when it does not have read permissions</t>
+  </si>
+  <si>
+    <t>ListView - Verify the msg for a file/folder item when it does not have write permissions</t>
+  </si>
+  <si>
+    <t>tile view - Verify the msg for a file/folder item when it does not have read permissions</t>
+  </si>
+  <si>
+    <t>tile view - Verifythe msg for a file/folder item when it does not have write permissions</t>
+  </si>
+  <si>
+    <t>Testcase to verify the  Output folder pagination validation new UX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3691,6 +3789,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3804,7 +3916,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3841,10 +3953,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -4291,6 +4400,334 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.77734375" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>990</v>
+      </c>
+      <c r="D4" t="s">
+        <v>990</v>
+      </c>
+      <c r="E4" t="s">
+        <v>990</v>
+      </c>
+      <c r="F4" t="s">
+        <v>998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>989</v>
+      </c>
+      <c r="H4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>990</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F7" t="s">
+        <v>998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B8" t="s">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>990</v>
+      </c>
+      <c r="D8" t="s">
+        <v>990</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F8" t="s">
+        <v>998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>989</v>
+      </c>
+      <c r="H8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>997</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B10" t="s">
+        <v>995</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E10" t="s">
+        <v>990</v>
+      </c>
+      <c r="F10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B11" t="s">
+        <v>993</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F11" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D12" t="s">
+        <v>990</v>
+      </c>
+      <c r="E12" t="s">
+        <v>990</v>
+      </c>
+      <c r="F12" t="s">
+        <v>989</v>
+      </c>
+      <c r="G12" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="Bangalore@123" xr:uid="{C8EC15C6-FC3F-4597-9188-215E9CFFA027}"/>
+    <hyperlink ref="C5" r:id="rId2" display="Bangalore@123" xr:uid="{43E91C2E-F6E8-4A90-B2CA-F209A92C7702}"/>
+    <hyperlink ref="D5" r:id="rId3" display="Ravikiran@123" xr:uid="{512DFB68-4A9F-4513-AACF-54E88290E03B}"/>
+    <hyperlink ref="E5" r:id="rId4" display="Ravikiran@12345" xr:uid="{5149011A-95AD-47EA-B6F3-950DD752673E}"/>
+    <hyperlink ref="C6" r:id="rId5" display="Ravikiran@1234" xr:uid="{1BEF4D23-E109-4E27-9BB6-3F757E728BAD}"/>
+    <hyperlink ref="D6" r:id="rId6" display="Bangalore@123" xr:uid="{2895DFF4-637C-477E-BB48-228D866008A8}"/>
+    <hyperlink ref="E6" r:id="rId7" display="Bangalore@123" xr:uid="{6D315A0A-FDAD-4CD6-926E-FB7C1E2234AA}"/>
+    <hyperlink ref="D7" r:id="rId8" display="Bangalore@123" xr:uid="{FDFE78CF-D8C7-49C9-9174-EAD8BC50BAB1}"/>
+    <hyperlink ref="E7" r:id="rId9" display="Bangalore@1234" xr:uid="{79BAEDCE-F861-40BF-A6F8-9BAA91FE9DBB}"/>
+    <hyperlink ref="E8" r:id="rId10" display="Bangalore@1234" xr:uid="{6E853790-555F-4AE5-A483-E4B10C4FF6FD}"/>
+    <hyperlink ref="C9" r:id="rId11" display="Bangalore@123" xr:uid="{1E932A47-C7B3-4517-852D-94BCD377FC69}"/>
+    <hyperlink ref="D9" r:id="rId12" display="Ravikiran@123" xr:uid="{63B69B27-01C7-4C08-85A9-0677EFA33F90}"/>
+    <hyperlink ref="E9" r:id="rId13" display="Ravikiran@123" xr:uid="{61FC8314-0824-4B89-AAD5-0DD9115A2C9F}"/>
+    <hyperlink ref="C10" r:id="rId14" display="Bangalore@123" xr:uid="{07DB1408-9A3C-48DA-8AE6-9F46517C82C0}"/>
+    <hyperlink ref="D10" r:id="rId15" display="Bangalore@123" xr:uid="{777A7946-A84C-40AD-B057-159CF41B297F}"/>
+    <hyperlink ref="C11" r:id="rId16" display="Bangalore@123" xr:uid="{F5664057-48D7-40FE-9F4E-A217B3D0B094}"/>
+    <hyperlink ref="D11" r:id="rId17" display="Bangalore@123" xr:uid="{274D8A59-843E-4C2F-932E-503C80E8AF64}"/>
+    <hyperlink ref="E11" r:id="rId18" display="Bangalore@123" xr:uid="{1181F305-80C5-477F-936B-526E5C125366}"/>
+    <hyperlink ref="C12" r:id="rId19" display="Bangalore@123" xr:uid="{5DF816C2-DA71-4F17-8506-62D5AC2D0E5F}"/>
+    <hyperlink ref="C2" r:id="rId20" display="Bangalore@123" xr:uid="{0A8E8EC5-A25C-4915-987C-09DD8E7DD541}"/>
+    <hyperlink ref="C3" r:id="rId21" display="Ravikiran@123" xr:uid="{9DF06F33-B6C2-4C72-B2D6-61BFB325F1E5}"/>
+    <hyperlink ref="E3" r:id="rId22" display="Bangalore@123" xr:uid="{14F7642D-2170-4ED6-B430-E6AEC100E9DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A529B9-903C-45A2-901F-9D341955071D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -4594,7 +5031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2CB3A-76BE-454A-8CED-01A84C1CCF2F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -4830,7 +5267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3050C8-3A8D-4DE1-9C22-09145670512E}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -5076,7 +5513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8004406F-9BB5-44CC-B5FD-6AB51EA63268}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5155,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEB086-7FEB-4B39-87A9-1F088DACEF5D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5347,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523F3BF-8164-44E1-977A-66026445142F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5400,21 +5837,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4567093D-A8D5-4E03-9534-579CE219E49C}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -5740,12 +6180,29 @@
         <v>304</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5724D-5463-4FCF-A4F1-F5DFAB6E3F70}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5807,7 +6264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC2C27-8A96-4A23-BB21-23846DE78349}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6105,169 +6562,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BDA10-16FC-473B-B01F-8455443B2C0A}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>567</v>
-      </c>
-      <c r="B4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B8" t="s">
-        <v>578</v>
-      </c>
-      <c r="C8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>584</v>
-      </c>
-      <c r="B11" t="s">
-        <v>585</v>
-      </c>
-      <c r="C11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>586</v>
-      </c>
-      <c r="B12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C3341-A28C-4797-B00C-0BCCC9D6B731}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6435,6 +6735,161 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BDA10-16FC-473B-B01F-8455443B2C0A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE8C224-BA72-4C4C-B7BF-5463A9EB02C3}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -6960,7 +7415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482266D-B90F-4B77-ADCD-DBA0EB5AE431}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7450,7 +7905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B160D41-22A7-4DDD-97BB-D99E5654BA01}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7853,7 +8308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B5370-5029-483B-916B-4E563C4D6F93}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -8041,7 +8496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DE01A5-2C8B-4355-8451-CE73E53961BB}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
@@ -8287,7 +8742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692B37E-0216-4972-A110-E1B81B06E6C4}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
@@ -9277,7 +9732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88715B-2C1F-4B02-9C56-197D358D7FB4}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
@@ -9900,117 +10355,117 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="13" t="s">
         <v>1177</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="13" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="13" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="13" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="13" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="13" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -10031,7 +10486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7684-571C-4EED-95D8-7F34A7B49B6B}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
@@ -10039,7 +10494,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E1" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10324,7 +10779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188AC2A-13AA-44F7-B850-44BEE776D85D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10914,157 +11369,6 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{E5C46896-7AE6-45C0-BD38-38CD31504FD7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F4AAFC-C1A9-47B3-B848-06156D11375D}">
-  <sheetPr codeName="Sheet6">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{6A6AC814-7C90-4191-A528-433864BBC41A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11386,6 +11690,157 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F4AAFC-C1A9-47B3-B848-06156D11375D}">
+  <sheetPr codeName="Sheet6">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{6A6AC814-7C90-4191-A528-433864BBC41A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE12FB-03D5-4E75-92F5-3C993AAF3A5A}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
@@ -11521,7 +11976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6162D-ED52-4421-8B7E-2C58681ADE6F}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
@@ -11668,14 +12123,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BBAD8-8992-4A11-B32C-5E8E74095072}">
   <sheetPr codeName="Sheet9" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
@@ -12941,7 +13396,7 @@
       <c r="B55" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D55" s="15" t="s">
@@ -12953,7 +13408,7 @@
       <c r="F55" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -12964,7 +13419,7 @@
       <c r="B56" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D56" s="15" t="s">
@@ -12976,7 +13431,7 @@
       <c r="F56" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13811,7 +14266,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C533FF7-F144-41E8-889D-20A849083FFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E1104-0B81-46DF-BF55-20A13EF92D67}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5"/>
@@ -13975,7 +14442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604C20EA-1202-4F32-9A03-50C03C9141BD}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="5"/>
@@ -14081,7 +14548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6364318-D354-4A54-B885-C4D13BCF1553}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="5"/>
@@ -14290,7 +14757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB462C-E7DD-41D5-B1F6-0B76A79BD546}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="5"/>
@@ -14429,7 +14896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DA0612-5B2C-41D1-B114-8D7F9449CFCB}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -14632,546 +15099,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
-  <sheetPr codeName="Sheet14">
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" t="s">
-        <v>637</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" t="s">
-        <v>367</v>
-      </c>
-      <c r="D14" t="s">
-        <v>361</v>
-      </c>
-      <c r="E14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D15" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" t="s">
-        <v>374</v>
-      </c>
-      <c r="C17" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" t="s">
-        <v>361</v>
-      </c>
-      <c r="E18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>789</v>
-      </c>
-      <c r="B19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D19" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8162057B-52FF-4F06-A9FE-C8E0168242E3}">
-  <sheetPr codeName="Sheet15">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{58E158FA-F610-4D72-A1CB-B39453ED1156}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15675,6 +15602,546 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
+  <sheetPr codeName="Sheet14">
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8162057B-52FF-4F06-A9FE-C8E0168242E3}">
+  <sheetPr codeName="Sheet15">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{58E158FA-F610-4D72-A1CB-B39453ED1156}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF92D050"/>
@@ -15904,7 +16371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72A9D9-D447-4A21-A49D-88C8132B73CE}">
   <sheetPr codeName="Sheet17">
     <tabColor theme="5"/>
@@ -16110,7 +16577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5A9AB-486E-4615-848C-03E69B3477F9}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="5"/>
@@ -16323,7 +16790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
   <sheetPr codeName="Sheet19">
     <tabColor theme="5"/>
@@ -16487,7 +16954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1FEC-B865-44FA-820C-57E3FB6789F2}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B7"/>
@@ -16566,7 +17033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864CB40-A73B-4F10-9198-5C94E25214F3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -16743,7 +17210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B5"/>
@@ -16803,7 +17270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FF732-6CB7-4C54-BB6D-389CA5D69A47}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -16901,7 +17368,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="86.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>545</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>829</v>
+      </c>
+      <c r="M12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>830</v>
+      </c>
+      <c r="M13" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>828</v>
+      </c>
+      <c r="M14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>831</v>
+      </c>
+      <c r="M15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>827</v>
+      </c>
+      <c r="M16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEF9F3-3285-454F-A311-2FAE775A4BE5}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF92D050"/>
@@ -17369,223 +18057,223 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
-  <dimension ref="A1:M16"/>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304D259E-83D8-4392-AE67-C9D460A8C37E}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="86.6640625" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{188A2DAF-14C0-474F-B7B9-90AC767C3E8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFB9B6C-B0CE-427C-98B4-659AF87DCC9E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="74.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1015</v>
+        <v>1210</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>827</v>
-      </c>
-      <c r="M12" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>828</v>
-      </c>
-      <c r="M13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>829</v>
-      </c>
-      <c r="M14" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>830</v>
-      </c>
-      <c r="M15" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>831</v>
-      </c>
-      <c r="M16" t="s">
-        <v>835</v>
+        <v>1209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17791,329 +18479,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B3B0FB-3FE6-4738-8AF1-B95BAB242EAB}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F3" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C4" t="s">
-        <v>990</v>
-      </c>
-      <c r="D4" t="s">
-        <v>990</v>
-      </c>
-      <c r="E4" t="s">
-        <v>990</v>
-      </c>
-      <c r="F4" t="s">
-        <v>998</v>
-      </c>
-      <c r="G4" t="s">
-        <v>989</v>
-      </c>
-      <c r="H4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>990</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F7" t="s">
-        <v>998</v>
-      </c>
-      <c r="G7" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B8" t="s">
-        <v>999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>990</v>
-      </c>
-      <c r="D8" t="s">
-        <v>990</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F8" t="s">
-        <v>998</v>
-      </c>
-      <c r="G8" t="s">
-        <v>989</v>
-      </c>
-      <c r="H8" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>997</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F9" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B10" t="s">
-        <v>995</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E10" t="s">
-        <v>990</v>
-      </c>
-      <c r="F10" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B11" t="s">
-        <v>993</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F11" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B12" t="s">
-        <v>991</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D12" t="s">
-        <v>990</v>
-      </c>
-      <c r="E12" t="s">
-        <v>990</v>
-      </c>
-      <c r="F12" t="s">
-        <v>989</v>
-      </c>
-      <c r="G12" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="Bangalore@123" xr:uid="{C8EC15C6-FC3F-4597-9188-215E9CFFA027}"/>
-    <hyperlink ref="C5" r:id="rId2" display="Bangalore@123" xr:uid="{43E91C2E-F6E8-4A90-B2CA-F209A92C7702}"/>
-    <hyperlink ref="D5" r:id="rId3" display="Ravikiran@123" xr:uid="{512DFB68-4A9F-4513-AACF-54E88290E03B}"/>
-    <hyperlink ref="E5" r:id="rId4" display="Ravikiran@12345" xr:uid="{5149011A-95AD-47EA-B6F3-950DD752673E}"/>
-    <hyperlink ref="C6" r:id="rId5" display="Ravikiran@1234" xr:uid="{1BEF4D23-E109-4E27-9BB6-3F757E728BAD}"/>
-    <hyperlink ref="D6" r:id="rId6" display="Bangalore@123" xr:uid="{2895DFF4-637C-477E-BB48-228D866008A8}"/>
-    <hyperlink ref="E6" r:id="rId7" display="Bangalore@123" xr:uid="{6D315A0A-FDAD-4CD6-926E-FB7C1E2234AA}"/>
-    <hyperlink ref="D7" r:id="rId8" display="Bangalore@123" xr:uid="{FDFE78CF-D8C7-49C9-9174-EAD8BC50BAB1}"/>
-    <hyperlink ref="E7" r:id="rId9" display="Bangalore@1234" xr:uid="{79BAEDCE-F861-40BF-A6F8-9BAA91FE9DBB}"/>
-    <hyperlink ref="E8" r:id="rId10" display="Bangalore@1234" xr:uid="{6E853790-555F-4AE5-A483-E4B10C4FF6FD}"/>
-    <hyperlink ref="C9" r:id="rId11" display="Bangalore@123" xr:uid="{1E932A47-C7B3-4517-852D-94BCD377FC69}"/>
-    <hyperlink ref="D9" r:id="rId12" display="Ravikiran@123" xr:uid="{63B69B27-01C7-4C08-85A9-0677EFA33F90}"/>
-    <hyperlink ref="E9" r:id="rId13" display="Ravikiran@123" xr:uid="{61FC8314-0824-4B89-AAD5-0DD9115A2C9F}"/>
-    <hyperlink ref="C10" r:id="rId14" display="Bangalore@123" xr:uid="{07DB1408-9A3C-48DA-8AE6-9F46517C82C0}"/>
-    <hyperlink ref="D10" r:id="rId15" display="Bangalore@123" xr:uid="{777A7946-A84C-40AD-B057-159CF41B297F}"/>
-    <hyperlink ref="C11" r:id="rId16" display="Bangalore@123" xr:uid="{F5664057-48D7-40FE-9F4E-A217B3D0B094}"/>
-    <hyperlink ref="D11" r:id="rId17" display="Bangalore@123" xr:uid="{274D8A59-843E-4C2F-932E-503C80E8AF64}"/>
-    <hyperlink ref="E11" r:id="rId18" display="Bangalore@123" xr:uid="{1181F305-80C5-477F-936B-526E5C125366}"/>
-    <hyperlink ref="C12" r:id="rId19" display="Bangalore@123" xr:uid="{5DF816C2-DA71-4F17-8506-62D5AC2D0E5F}"/>
-    <hyperlink ref="C2" r:id="rId20" display="Bangalore@123" xr:uid="{0A8E8EC5-A25C-4915-987C-09DD8E7DD541}"/>
-    <hyperlink ref="C3" r:id="rId21" display="Ravikiran@123" xr:uid="{9DF06F33-B6C2-4C72-B2D6-61BFB325F1E5}"/>
-    <hyperlink ref="E3" r:id="rId22" display="Bangalore@123" xr:uid="{14F7642D-2170-4ED6-B430-E6AEC100E9DD}"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent _2024.1.10\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_sanity_xrayid\Accessweb_newextent _2024.1.10\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363515A9-4228-44FA-B04F-B9047BD6B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71319609-EB25-4AED-84E6-2721780AB6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="13" activeTab="16" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="33" activeTab="39" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="1232">
   <si>
     <t>username</t>
   </si>
@@ -3737,6 +3737,66 @@
   </si>
   <si>
     <t>Testcase to verify the  Output folder pagination validation new UX</t>
+  </si>
+  <si>
+    <t>XrayID</t>
+  </si>
+  <si>
+    <t>AD-1770</t>
+  </si>
+  <si>
+    <t>AD-1773</t>
+  </si>
+  <si>
+    <t>AD-3381</t>
+  </si>
+  <si>
+    <t>AD-3289</t>
+  </si>
+  <si>
+    <t>AD-3294</t>
+  </si>
+  <si>
+    <t>AD-2958</t>
+  </si>
+  <si>
+    <t>AD-5245</t>
+  </si>
+  <si>
+    <t>AD-1085</t>
+  </si>
+  <si>
+    <t>AD-1086</t>
+  </si>
+  <si>
+    <t>AD-1124</t>
+  </si>
+  <si>
+    <t>AD-1095</t>
+  </si>
+  <si>
+    <t>AD-1094</t>
+  </si>
+  <si>
+    <t>AD-1087</t>
+  </si>
+  <si>
+    <t>AD-1092</t>
+  </si>
+  <si>
+    <t>AD-1084</t>
+  </si>
+  <si>
+    <t>AD-1083</t>
+  </si>
+  <si>
+    <t>AD-1091</t>
+  </si>
+  <si>
+    <t>AD-1088</t>
+  </si>
+  <si>
+    <t>AD-1116</t>
   </si>
 </sst>
 </file>
@@ -5842,10 +5902,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5857,7 +5917,7 @@
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5873,8 +5933,11 @@
       <c r="E1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -5891,7 +5954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -5908,7 +5971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>708</v>
       </c>
@@ -5925,7 +5988,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -5942,7 +6005,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>709</v>
       </c>
@@ -5959,7 +6022,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>710</v>
       </c>
@@ -5976,7 +6039,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>708</v>
       </c>
@@ -5993,7 +6056,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -6010,7 +6073,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>709</v>
       </c>
@@ -6027,7 +6090,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>710</v>
       </c>
@@ -6044,7 +6107,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>708</v>
       </c>
@@ -6061,7 +6124,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -6078,7 +6141,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>709</v>
       </c>
@@ -6095,7 +6158,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>710</v>
       </c>
@@ -6112,7 +6175,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>708</v>
       </c>
@@ -12130,7 +12193,7 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
@@ -14283,10 +14346,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14297,7 +14360,7 @@
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -14310,8 +14373,11 @@
       <c r="D1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -14324,8 +14390,11 @@
       <c r="D2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -14338,8 +14407,11 @@
       <c r="D3" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -14352,8 +14424,11 @@
       <c r="D4" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -14366,8 +14441,11 @@
       <c r="D5" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1103</v>
       </c>
@@ -14380,8 +14458,11 @@
       <c r="D6" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -14394,8 +14475,11 @@
       <c r="D7" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>634</v>
       </c>
@@ -14405,8 +14489,11 @@
       <c r="D8" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>636</v>
       </c>
@@ -14419,8 +14506,11 @@
       <c r="D9" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1165</v>
       </c>
@@ -14433,8 +14523,12 @@
       <c r="D10" t="s">
         <v>1176</v>
       </c>
+      <c r="E10" t="s">
+        <v>1214</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{D7206C73-0080-477F-B746-78A0AF2DF015}"/>
   </hyperlinks>
@@ -15606,10 +15700,10 @@
   <sheetPr codeName="Sheet14">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15621,7 +15715,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -15637,8 +15731,11 @@
       <c r="E1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>502</v>
       </c>
@@ -15654,8 +15751,11 @@
       <c r="E2" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="11" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>503</v>
       </c>
@@ -15671,8 +15771,11 @@
       <c r="E3" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="11" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
@@ -15688,8 +15791,11 @@
       <c r="E4" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="11" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>129</v>
       </c>
@@ -15705,8 +15811,11 @@
       <c r="E5" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="11" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>841</v>
       </c>
@@ -15722,8 +15831,11 @@
       <c r="E6" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="11" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>131</v>
       </c>
@@ -15739,8 +15851,11 @@
       <c r="E7" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="11" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>138</v>
       </c>
@@ -15756,8 +15871,11 @@
       <c r="E8" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="11" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>139</v>
       </c>
@@ -15773,8 +15891,11 @@
       <c r="E9" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="11" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
@@ -15790,8 +15911,11 @@
       <c r="E10" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>133</v>
       </c>
@@ -15807,8 +15931,11 @@
       <c r="E11" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="11" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -15825,7 +15952,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>362</v>
       </c>
@@ -15842,7 +15969,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -15859,7 +15986,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -15876,7 +16003,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -15893,7 +16020,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>365</v>
       </c>
@@ -15910,7 +16037,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>366</v>
       </c>
@@ -15927,7 +16054,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>789</v>
       </c>
@@ -15944,7 +16071,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -15960,8 +16087,11 @@
       <c r="E20" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15977,8 +16107,11 @@
       <c r="E21" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -15993,6 +16126,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
